--- a/QA/Tests/FTP/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/FTP/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -201,31 +201,33 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="E1">
-            <v>2</v>
-          </cell>
-          <cell r="G1">
-            <v>2</v>
+          <cell r="H1">
+            <v>8</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="G2">
+          <cell r="H2">
             <v>0</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="G4">
-            <v>6</v>
+        <row r="3">
+          <cell r="H3">
+            <v>7</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5">
-            <v>0</v>
+          <cell r="H5">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>37</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -265,8 +267,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -283,28 +285,26 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="H1">
-            <v>8</v>
+          <cell r="E1">
+            <v>2</v>
+          </cell>
+          <cell r="G1">
+            <v>2</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="H2">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3">
-            <v>3</v>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>6</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="H5">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>20</v>
+          <cell r="G5">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -655,31 +655,31 @@
         <v>13</v>
       </c>
       <c r="B2" s="1">
-        <f>[3]Sheet1!$H$2</f>
-        <v>4</v>
+        <f>[1]Sheet1!$H$2</f>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f>[3]Sheet1!$H$3</f>
-        <v>3</v>
+        <f>[1]Sheet1!$H$3</f>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <f>[3]Sheet1!$H$1</f>
+        <f>[1]Sheet1!$H$1</f>
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <f>[3]Sheet1!$H$6</f>
-        <v>20</v>
+        <f>[1]Sheet1!$H$6</f>
+        <v>37</v>
       </c>
       <c r="F2" s="1">
-        <f>[3]Sheet1!$H$5</f>
-        <v>43</v>
+        <f>[1]Sheet1!$H$5</f>
+        <v>44</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -727,23 +727,23 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <f>[1]Sheet1!$G$1</f>
+        <f>[3]Sheet1!$G$1</f>
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f>[1]Sheet1!$G$2</f>
+        <f>[3]Sheet1!$G$2</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>[1]Sheet1!$E$1</f>
+        <f>[3]Sheet1!$E$1</f>
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f>[1]Sheet1!$G$5</f>
+        <f>[3]Sheet1!$G$5</f>
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f>[1]Sheet1!$G$4</f>
+        <f>[3]Sheet1!$G$4</f>
         <v>6</v>
       </c>
       <c r="G4" s="4"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.36363636363636365</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/FTP/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/FTP/CRUD/_Test_Suite_Statistics_for_Folders.xlsx
@@ -289,22 +289,22 @@
             <v>2</v>
           </cell>
           <cell r="G1">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>6</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -679,7 +679,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -728,11 +728,11 @@
       </c>
       <c r="B4" s="1">
         <f>[3]Sheet1!$G$1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <f>[3]Sheet1!$G$2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <f>[3]Sheet1!$E$1</f>
@@ -740,11 +740,11 @@
       </c>
       <c r="E4" s="1">
         <f>[3]Sheet1!$G$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <f>[3]Sheet1!$G$4</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.6607142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="I7" s="3"/>
     </row>
